--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4423579.039162085</v>
+        <v>4416562.024270374</v>
       </c>
     </row>
     <row r="7">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>13.37785060949412</v>
+        <v>17.60801267181546</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>59.6638564154455</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>135.1787052649172</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>380.0289246551353</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>303.6718847753713</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>9.76486346740683</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>8.546296656423092</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>110.1458031968985</v>
       </c>
       <c r="H8" t="n">
-        <v>173.8401197350344</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>81.80445351869601</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274033</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>265.0413267521885</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>138.3863005245256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2007,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>43.99265567135583</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>11.20507996684601</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>137.9838098727421</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.57002274904534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2952,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>96.4869309715356</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0.8576818890146563</v>
+        <v>25.82923535834103</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>94.26520470697068</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>198.2257869604914</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>149.0799667719507</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3793,10 +3793,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498012</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>237.5760135502624</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.4302129863019</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4342,40 +4342,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2507.458622918762</v>
+        <v>2624.334530163044</v>
       </c>
       <c r="U2" t="n">
-        <v>2507.458622918762</v>
+        <v>2370.572744801135</v>
       </c>
       <c r="V2" t="n">
-        <v>2507.458622918762</v>
+        <v>2039.509857457565</v>
       </c>
       <c r="W2" t="n">
-        <v>2154.689967648648</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="X2" t="n">
-        <v>1781.224209387568</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>1686.741202187451</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4406,16 +4406,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4430,22 +4430,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>591.5848374741946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>591.5848374741946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>591.5848374741946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.645519427256</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C5" t="n">
-        <v>1529.645519427256</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.379820820506</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="E5" t="n">
-        <v>785.5915682222612</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="F5" t="n">
-        <v>778.6460674730578</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>360.6822593712446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>1916.245359491378</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229054</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>571.3497027553424</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>245.4549451025302</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1176.876864157142</v>
+        <v>1689.203741822953</v>
       </c>
       <c r="C8" t="n">
-        <v>807.9143472167302</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>807.9143472167302</v>
+        <v>961.9755262757906</v>
       </c>
       <c r="E8" t="n">
-        <v>807.9143472167302</v>
+        <v>576.1872736775463</v>
       </c>
       <c r="F8" t="n">
-        <v>800.9688464675268</v>
+        <v>165.2013688879387</v>
       </c>
       <c r="G8" t="n">
-        <v>383.0050383657136</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>1563.476704221264</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.476704221264</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1563.476704221264</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>182.2302673832261</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5023,31 +5023,31 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5065,7 +5065,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710886</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775526</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170014</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2484.468242641992</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824787</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>696.4172299538895</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>696.4172299538895</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>696.4172299538895</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>468.4276790558724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>247.6350999123424</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,25 +5278,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5311,13 +5311,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590536</v>
@@ -5360,19 +5360,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020477</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>964.1357418247858</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.3515998808206</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,28 +5500,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4222.668404541551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>4222.668404541551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>4072.551765129215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>3924.638671546822</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576118</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>4749.779469576118</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>4495.094981370231</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>4450.657955439568</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>4222.668404541551</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>4222.668404541551</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5794,7 +5794,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>592.5368061590563</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C22" t="n">
-        <v>423.6006232311494</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D22" t="n">
-        <v>423.6006232311494</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>820.5263570570736</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>592.5368061590563</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>592.5368061590563</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W25" t="n">
-        <v>392.0201325405893</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1020.446367141521</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1020.446367141521</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,10 +6442,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>751.4342788065931</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,55 +6676,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C34" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D34" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>755.183133481126</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>465.7659634441654</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>464.8996181017263</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y34" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4183.784987467548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4183.784987467548</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4033.668348055212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3885.755254472819</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3738.865306974908</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4749.779469576119</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4460.650830789677</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4460.650830789677</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4460.650830789677</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4365.433452297787</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4365.433452297787</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>233.7852434110091</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4549.551401939258</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4260.422763152816</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>4005.738274946929</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>4005.738274946929</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>3777.748724048912</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7438,22 +7438,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.6075462588844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>653.6713633309776</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>503.5547239186418</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1258.940499295011</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1004.256011089124</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1004.256011089124</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>1004.256011089124</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,25 +7633,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>785.7936752259998</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.2581065529675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.47535963978328</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>52.49733361305363</v>
       </c>
       <c r="R12" t="n">
         <v>34.7842838544522</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139967</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
-        <v>414.5002179180844</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,13 +9728,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720745</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814685</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,13 +11141,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>234.4116509503168</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633774</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1960256463887</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>87.3233548645116</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,19 +23895,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>242.5303426652352</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,19 +24129,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>135.2288826797232</v>
+        <v>30.90698584635157</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>148.5391884638489</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
-        <v>138.0146306030495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>52.12854204667676</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>224.8519735000225</v>
+        <v>199.8804200306961</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>131.4444506820665</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>23.32177409789782</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25806,7 +25806,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.6613388483149</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.1544403657929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>593672.5275719949</v>
+        <v>593672.527571995</v>
       </c>
     </row>
     <row r="10">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="I2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="J2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="J2" t="n">
-        <v>782058.1194754177</v>
-      </c>
       <c r="K2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="M2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754175</v>
       </c>
-      <c r="N2" t="n">
-        <v>782058.1194754174</v>
-      </c>
       <c r="O2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,40 +26426,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007638</v>
+        <v>7916.731656007511</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007546</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007517</v>
-      </c>
       <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="L4" t="n">
         <v>7916.731656007545</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7916.731656007487</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.7638704082929</v>
+        <v>297.7638704083074</v>
       </c>
       <c r="C6" t="n">
         <v>590265.6430849527</v>
       </c>
       <c r="D6" t="n">
-        <v>590265.643084953</v>
+        <v>590265.6430849528</v>
       </c>
       <c r="E6" t="n">
-        <v>156994.0253937975</v>
+        <v>156019.434134076</v>
       </c>
       <c r="F6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="G6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="H6" t="n">
-        <v>682154.0618706935</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="I6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="J6" t="n">
-        <v>505730.8426781006</v>
+        <v>504756.251418379</v>
       </c>
       <c r="K6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.470610972</v>
       </c>
       <c r="L6" t="n">
-        <v>682154.0618706936</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="M6" t="n">
-        <v>547353.0466368563</v>
+        <v>546378.4553771347</v>
       </c>
       <c r="N6" t="n">
-        <v>682154.0618706933</v>
+        <v>681179.4706109718</v>
       </c>
       <c r="O6" t="n">
-        <v>682154.0618706938</v>
+        <v>681179.4706109719</v>
       </c>
       <c r="P6" t="n">
-        <v>682154.0618706937</v>
+        <v>681179.4706109718</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -26749,13 +26749,13 @@
         <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26767,10 +26767,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>203.0704697481637</v>
+        <v>198.8403076858423</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634964</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>116.9589380589108</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>26.84712108657618</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20.25088798898582</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>157.481957631221</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>243.5913466674049</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>303.6383668238965</v>
       </c>
       <c r="H8" t="n">
-        <v>150.0826530293228</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28064,13 +28064,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>170.333189805132</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>5.464171643889758e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28803,13 +28803,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28854,19 +28854,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29100,13 +29100,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.094947017729283e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35491,10 +35491,10 @@
         <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>180.0507982277225</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
         <v>776.129440800466</v>
@@ -35503,13 +35503,13 @@
         <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>140.5103663981277</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556566</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700209</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,16 +35965,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
-        <v>747.6947913160973</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35983,7 +35983,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36448,13 +36448,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415086</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330535</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36922,7 +36922,7 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>513.2182750716</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36931,7 +36931,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>406.4618263286133</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37861,13 +37861,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>544.836028000783</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4416562.024270374</v>
+        <v>4421501.287119406</v>
       </c>
     </row>
     <row r="7">
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.60801267181546</v>
+        <v>17.60801267181456</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -834,7 +834,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>59.6638564154455</v>
+        <v>59.6638564154453</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>380.0289246551353</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>32.25400731353592</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>9.76486346740683</v>
+        <v>9.764863467406604</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>110.1458031968985</v>
+        <v>110.1458031968981</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151915</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>93.29250597625442</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>21.12238231029274</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.97175332133618</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>25.82923535834103</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>5.562624396424889</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>141.1171164949153</v>
       </c>
       <c r="V40" t="n">
-        <v>149.0799667719507</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4327,16 +4327,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,16 +4348,16 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
         <v>2624.334530163044</v>
@@ -4406,31 +4406,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4549,13 +4549,13 @@
         <v>1336.435086552838</v>
       </c>
       <c r="D5" t="n">
-        <v>1336.435086552838</v>
+        <v>978.1693879460875</v>
       </c>
       <c r="E5" t="n">
-        <v>1336.435086552838</v>
+        <v>978.1693879460875</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>567.18348315648</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.80648027229054</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025302</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.4549451025302</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822953</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
         <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757906</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775463</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879387</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4950,64 +4950,64 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207829</v>
@@ -5068,16 +5068,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
@@ -5123,10 +5123,10 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845919</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
         <v>1670.043068977053</v>
@@ -5202,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,22 +5226,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
         <v>97.21709146028584</v>
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5281,22 +5281,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,13 +5305,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>751.4342788065931</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>601.3176393942573</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>453.4045458118642</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
         <v>2051.878056918008</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6077,7 +6077,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>524.8904636260082</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9773700436151</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>230.0874225457048</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>230.0874225457048</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6177,22 +6177,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954967</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,16 +6539,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>233.7852434110089</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555215</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M30" t="n">
         <v>1198.760773441947</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028587</v>
+        <v>503.3281774570622</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028587</v>
+        <v>282.5355983135321</v>
       </c>
     </row>
     <row r="32">
@@ -6697,16 +6697,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643586</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,19 +6955,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7119,13 +7119,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
         <v>869.3083006011506</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,19 +7186,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7365,19 +7365,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>1132.588313433352</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1132.588313433352</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>843.1711433963917</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>843.1711433963917</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,10 +7411,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142012</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783515</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.49733361305363</v>
+        <v>52.49733361305314</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9251,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720745</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>96.03744927814685</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10214,7 +10214,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814711</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338579</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>52.12854204667683</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>30.90698584635157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>127.7914460572434</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24618,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>91.26539274301206</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>162.8602268606011</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>199.8804200306961</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>145.1202359036621</v>
       </c>
       <c r="V40" t="n">
-        <v>103.0576765518773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>593672.527571995</v>
+        <v>593672.5275719949</v>
       </c>
     </row>
     <row r="11">
@@ -26319,31 +26319,31 @@
         <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="G2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="M2" t="n">
         <v>782058.1194754177</v>
@@ -26352,10 +26352,10 @@
         <v>782058.1194754175</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26426,7 +26426,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007511</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007484</v>
@@ -26438,22 +26438,22 @@
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007485</v>
       </c>
       <c r="K4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="L4" t="n">
-        <v>7916.731656007545</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007525</v>
-      </c>
       <c r="N4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007484</v>
@@ -26469,43 +26469,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.7638704083074</v>
+        <v>297.7638704084966</v>
       </c>
       <c r="C6" t="n">
         <v>590265.6430849527</v>
       </c>
       <c r="D6" t="n">
-        <v>590265.6430849528</v>
+        <v>590265.643084953</v>
       </c>
       <c r="E6" t="n">
-        <v>156019.434134076</v>
+        <v>156896.5662678253</v>
       </c>
       <c r="F6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="G6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447215</v>
       </c>
       <c r="H6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447216</v>
       </c>
       <c r="I6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="J6" t="n">
-        <v>504756.251418379</v>
+        <v>505633.3835521284</v>
       </c>
       <c r="K6" t="n">
-        <v>681179.470610972</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="L6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="M6" t="n">
-        <v>546378.4553771347</v>
+        <v>547255.5875108843</v>
       </c>
       <c r="N6" t="n">
-        <v>681179.4706109718</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="O6" t="n">
-        <v>681179.4706109719</v>
+        <v>682056.6027447213</v>
       </c>
       <c r="P6" t="n">
-        <v>681179.4706109718</v>
+        <v>682056.6027447216</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,34 +26737,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>198.8403076858423</v>
+        <v>198.8403076858432</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634964</v>
+        <v>96.50703242634985</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>26.84712108657618</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>381.5301627072591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>157.481957631221</v>
+        <v>157.4819576312212</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>303.6383668238965</v>
+        <v>303.6383668238969</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.464171643889758e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29988,7 +29988,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262118</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,10 +35266,10 @@
         <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,10 +35497,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.5103663981277</v>
+        <v>140.5103663981272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,19 +35971,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415086</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>137.9476282330535</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36919,13 +36919,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
